--- a/data/output/FV2404_FV2310/UTILMD/55078.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55078.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14692" uniqueCount="952">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14713" uniqueCount="952">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -3051,6 +3051,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U637" totalsRowShown="0">
+  <autoFilter ref="A1:U637"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3340,7 +3370,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U637"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -34154,5 +34187,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55078.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55078.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18016" uniqueCount="1573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17850" uniqueCount="1573">
   <si>
     <t>#</t>
   </si>
@@ -10412,9 +10412,7 @@
         <v>624</v>
       </c>
       <c r="K97" s="2"/>
-      <c r="L97" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L97" s="5"/>
       <c r="M97" s="2" t="s">
         <v>46</v>
       </c>
@@ -10468,9 +10466,7 @@
         <v>624</v>
       </c>
       <c r="K98" s="2"/>
-      <c r="L98" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L98" s="5"/>
       <c r="M98" s="2" t="s">
         <v>46</v>
       </c>
@@ -10524,9 +10520,7 @@
         <v>624</v>
       </c>
       <c r="K99" s="2"/>
-      <c r="L99" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L99" s="5"/>
       <c r="M99" s="2" t="s">
         <v>46</v>
       </c>
@@ -10952,9 +10946,7 @@
         <v>624</v>
       </c>
       <c r="K107" s="2"/>
-      <c r="L107" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L107" s="5"/>
       <c r="M107" s="2" t="s">
         <v>48</v>
       </c>
@@ -11652,9 +11644,7 @@
         <v>624</v>
       </c>
       <c r="K120" s="2"/>
-      <c r="L120" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L120" s="5"/>
       <c r="M120" s="2" t="s">
         <v>52</v>
       </c>
@@ -12950,9 +12940,7 @@
         <v>624</v>
       </c>
       <c r="K145" s="2"/>
-      <c r="L145" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L145" s="5"/>
       <c r="M145" s="2" t="s">
         <v>57</v>
       </c>
@@ -13538,9 +13526,7 @@
         <v>624</v>
       </c>
       <c r="K156" s="2"/>
-      <c r="L156" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L156" s="5"/>
       <c r="M156" s="2" t="s">
         <v>61</v>
       </c>
@@ -13596,9 +13582,7 @@
       <c r="K157" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="L157" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L157" s="5"/>
       <c r="M157" s="2" t="s">
         <v>61</v>
       </c>
@@ -13770,9 +13754,7 @@
         <v>648</v>
       </c>
       <c r="K160" s="2"/>
-      <c r="L160" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L160" s="5"/>
       <c r="M160" s="2" t="s">
         <v>61</v>
       </c>
@@ -13828,9 +13810,7 @@
       <c r="K161" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="L161" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L161" s="5"/>
       <c r="M161" s="2" t="s">
         <v>61</v>
       </c>
@@ -14746,9 +14726,7 @@
         <v>624</v>
       </c>
       <c r="K178" s="2"/>
-      <c r="L178" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L178" s="5"/>
       <c r="M178" s="2" t="s">
         <v>54</v>
       </c>
@@ -15874,9 +15852,7 @@
         <v>624</v>
       </c>
       <c r="K200" s="2"/>
-      <c r="L200" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L200" s="5"/>
       <c r="M200" s="2" t="s">
         <v>69</v>
       </c>
@@ -15930,9 +15906,7 @@
         <v>624</v>
       </c>
       <c r="K201" s="2"/>
-      <c r="L201" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L201" s="5"/>
       <c r="M201" s="2" t="s">
         <v>69</v>
       </c>
@@ -15986,9 +15960,7 @@
         <v>624</v>
       </c>
       <c r="K202" s="2"/>
-      <c r="L202" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L202" s="5"/>
       <c r="M202" s="2" t="s">
         <v>69</v>
       </c>
@@ -16150,9 +16122,7 @@
         <v>653</v>
       </c>
       <c r="K205" s="2"/>
-      <c r="L205" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L205" s="5"/>
       <c r="M205" s="2" t="s">
         <v>70</v>
       </c>
@@ -16208,9 +16178,7 @@
       <c r="K206" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="L206" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L206" s="5"/>
       <c r="M206" s="2" t="s">
         <v>70</v>
       </c>
@@ -16474,9 +16442,7 @@
         <v>624</v>
       </c>
       <c r="K211" s="2"/>
-      <c r="L211" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L211" s="5"/>
       <c r="M211" s="2" t="s">
         <v>71</v>
       </c>
@@ -16692,9 +16658,7 @@
         <v>624</v>
       </c>
       <c r="K215" s="2"/>
-      <c r="L215" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L215" s="5"/>
       <c r="M215" s="2" t="s">
         <v>72</v>
       </c>
@@ -16852,9 +16816,7 @@
         <v>656</v>
       </c>
       <c r="K218" s="2"/>
-      <c r="L218" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L218" s="5"/>
       <c r="M218" s="2" t="s">
         <v>73</v>
       </c>
@@ -17016,9 +16978,7 @@
         <v>656</v>
       </c>
       <c r="K221" s="2"/>
-      <c r="L221" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L221" s="5"/>
       <c r="M221" s="2" t="s">
         <v>74</v>
       </c>
@@ -17072,9 +17032,7 @@
         <v>656</v>
       </c>
       <c r="K222" s="2"/>
-      <c r="L222" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L222" s="5"/>
       <c r="M222" s="2" t="s">
         <v>74</v>
       </c>
@@ -17336,9 +17294,7 @@
         <v>624</v>
       </c>
       <c r="K227" s="2"/>
-      <c r="L227" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L227" s="5"/>
       <c r="M227" s="2" t="s">
         <v>76</v>
       </c>
@@ -17392,9 +17348,7 @@
         <v>624</v>
       </c>
       <c r="K228" s="2"/>
-      <c r="L228" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L228" s="5"/>
       <c r="M228" s="2" t="s">
         <v>76</v>
       </c>
@@ -17448,9 +17402,7 @@
         <v>624</v>
       </c>
       <c r="K229" s="2"/>
-      <c r="L229" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L229" s="5"/>
       <c r="M229" s="2" t="s">
         <v>76</v>
       </c>
@@ -17504,9 +17456,7 @@
         <v>624</v>
       </c>
       <c r="K230" s="2"/>
-      <c r="L230" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L230" s="5"/>
       <c r="M230" s="2" t="s">
         <v>76</v>
       </c>
@@ -18668,9 +18618,7 @@
         <v>624</v>
       </c>
       <c r="K252" s="2"/>
-      <c r="L252" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L252" s="5"/>
       <c r="M252" s="2" t="s">
         <v>80</v>
       </c>
@@ -18724,9 +18672,7 @@
         <v>624</v>
       </c>
       <c r="K253" s="2"/>
-      <c r="L253" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L253" s="5"/>
       <c r="M253" s="2" t="s">
         <v>80</v>
       </c>
@@ -19474,9 +19420,7 @@
         <v>624</v>
       </c>
       <c r="K267" s="2"/>
-      <c r="L267" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L267" s="5"/>
       <c r="M267" s="2" t="s">
         <v>83</v>
       </c>
@@ -19530,9 +19474,7 @@
         <v>624</v>
       </c>
       <c r="K268" s="2"/>
-      <c r="L268" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L268" s="5"/>
       <c r="M268" s="2" t="s">
         <v>83</v>
       </c>
@@ -19586,9 +19528,7 @@
         <v>624</v>
       </c>
       <c r="K269" s="2"/>
-      <c r="L269" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L269" s="5"/>
       <c r="M269" s="2" t="s">
         <v>83</v>
       </c>
@@ -19850,9 +19790,7 @@
         <v>660</v>
       </c>
       <c r="K274" s="2"/>
-      <c r="L274" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L274" s="5"/>
       <c r="M274" s="2" t="s">
         <v>85</v>
       </c>
@@ -19906,9 +19844,7 @@
         <v>661</v>
       </c>
       <c r="K275" s="2"/>
-      <c r="L275" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L275" s="5"/>
       <c r="M275" s="2" t="s">
         <v>85</v>
       </c>
@@ -19962,9 +19898,7 @@
         <v>662</v>
       </c>
       <c r="K276" s="2"/>
-      <c r="L276" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L276" s="5"/>
       <c r="M276" s="2" t="s">
         <v>85</v>
       </c>
@@ -21948,9 +21882,7 @@
         <v>624</v>
       </c>
       <c r="K313" s="2"/>
-      <c r="L313" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L313" s="5"/>
       <c r="M313" s="2" t="s">
         <v>77</v>
       </c>
@@ -22166,9 +22098,7 @@
         <v>624</v>
       </c>
       <c r="K317" s="2"/>
-      <c r="L317" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L317" s="5"/>
       <c r="M317" s="2" t="s">
         <v>93</v>
       </c>
@@ -22916,9 +22846,7 @@
         <v>665</v>
       </c>
       <c r="K331" s="2"/>
-      <c r="L331" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L331" s="5"/>
       <c r="M331" s="2" t="s">
         <v>85</v>
       </c>
@@ -24738,9 +24666,7 @@
         <v>624</v>
       </c>
       <c r="K366" s="2"/>
-      <c r="L366" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L366" s="5"/>
       <c r="M366" s="2" t="s">
         <v>105</v>
       </c>
@@ -24794,9 +24720,7 @@
         <v>624</v>
       </c>
       <c r="K367" s="2"/>
-      <c r="L367" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L367" s="5"/>
       <c r="M367" s="2" t="s">
         <v>105</v>
       </c>
@@ -24958,9 +24882,7 @@
         <v>624</v>
       </c>
       <c r="K370" s="2"/>
-      <c r="L370" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L370" s="5"/>
       <c r="M370" s="2" t="s">
         <v>106</v>
       </c>
@@ -25014,9 +24936,7 @@
         <v>624</v>
       </c>
       <c r="K371" s="2"/>
-      <c r="L371" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L371" s="5"/>
       <c r="M371" s="2" t="s">
         <v>106</v>
       </c>
@@ -25070,9 +24990,7 @@
         <v>624</v>
       </c>
       <c r="K372" s="2"/>
-      <c r="L372" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L372" s="5"/>
       <c r="M372" s="2" t="s">
         <v>106</v>
       </c>
@@ -25126,9 +25044,7 @@
         <v>624</v>
       </c>
       <c r="K373" s="2"/>
-      <c r="L373" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L373" s="5"/>
       <c r="M373" s="2" t="s">
         <v>106</v>
       </c>
@@ -25290,9 +25206,7 @@
         <v>624</v>
       </c>
       <c r="K376" s="2"/>
-      <c r="L376" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L376" s="5"/>
       <c r="M376" s="2" t="s">
         <v>107</v>
       </c>
@@ -25346,9 +25260,7 @@
         <v>624</v>
       </c>
       <c r="K377" s="2"/>
-      <c r="L377" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L377" s="5"/>
       <c r="M377" s="2" t="s">
         <v>107</v>
       </c>
@@ -25402,9 +25314,7 @@
         <v>624</v>
       </c>
       <c r="K378" s="2"/>
-      <c r="L378" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L378" s="5"/>
       <c r="M378" s="2" t="s">
         <v>107</v>
       </c>
@@ -25990,9 +25900,7 @@
         <v>624</v>
       </c>
       <c r="K389" s="2"/>
-      <c r="L389" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L389" s="5"/>
       <c r="M389" s="2" t="s">
         <v>110</v>
       </c>
@@ -27022,9 +26930,7 @@
         <v>624</v>
       </c>
       <c r="K409" s="2"/>
-      <c r="L409" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L409" s="5"/>
       <c r="M409" s="2" t="s">
         <v>87</v>
       </c>
@@ -27340,9 +27246,7 @@
         <v>624</v>
       </c>
       <c r="K415" s="2"/>
-      <c r="L415" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L415" s="5"/>
       <c r="M415" s="2" t="s">
         <v>57</v>
       </c>
@@ -28302,9 +28206,7 @@
         <v>624</v>
       </c>
       <c r="K433" s="2"/>
-      <c r="L433" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L433" s="5"/>
       <c r="M433" s="2" t="s">
         <v>54</v>
       </c>
@@ -28852,9 +28754,7 @@
         <v>624</v>
       </c>
       <c r="K444" s="2"/>
-      <c r="L444" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L444" s="5"/>
       <c r="M444" s="2" t="s">
         <v>116</v>
       </c>
@@ -28908,9 +28808,7 @@
         <v>624</v>
       </c>
       <c r="K445" s="2"/>
-      <c r="L445" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L445" s="5"/>
       <c r="M445" s="2" t="s">
         <v>116</v>
       </c>
@@ -28964,9 +28862,7 @@
         <v>624</v>
       </c>
       <c r="K446" s="2"/>
-      <c r="L446" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L446" s="5"/>
       <c r="M446" s="2" t="s">
         <v>116</v>
       </c>
@@ -29656,9 +29552,7 @@
         <v>624</v>
       </c>
       <c r="K459" s="2"/>
-      <c r="L459" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L459" s="5"/>
       <c r="M459" s="2" t="s">
         <v>120</v>
       </c>
@@ -29712,9 +29606,7 @@
         <v>624</v>
       </c>
       <c r="K460" s="2"/>
-      <c r="L460" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L460" s="5"/>
       <c r="M460" s="2" t="s">
         <v>120</v>
       </c>
@@ -29768,9 +29660,7 @@
         <v>624</v>
       </c>
       <c r="K461" s="2"/>
-      <c r="L461" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L461" s="5"/>
       <c r="M461" s="2" t="s">
         <v>120</v>
       </c>
@@ -29824,9 +29714,7 @@
         <v>624</v>
       </c>
       <c r="K462" s="2"/>
-      <c r="L462" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L462" s="5"/>
       <c r="M462" s="2" t="s">
         <v>120</v>
       </c>
@@ -29880,9 +29768,7 @@
         <v>624</v>
       </c>
       <c r="K463" s="2"/>
-      <c r="L463" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L463" s="5"/>
       <c r="M463" s="2" t="s">
         <v>120</v>
       </c>
@@ -29936,9 +29822,7 @@
         <v>624</v>
       </c>
       <c r="K464" s="2"/>
-      <c r="L464" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L464" s="5"/>
       <c r="M464" s="2" t="s">
         <v>120</v>
       </c>
@@ -30050,9 +29934,7 @@
         <v>674</v>
       </c>
       <c r="K466" s="2"/>
-      <c r="L466" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L466" s="5"/>
       <c r="M466" s="2" t="s">
         <v>120</v>
       </c>
@@ -30106,9 +29988,7 @@
         <v>674</v>
       </c>
       <c r="K467" s="2"/>
-      <c r="L467" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L467" s="5"/>
       <c r="M467" s="2" t="s">
         <v>120</v>
       </c>
@@ -30162,9 +30042,7 @@
         <v>675</v>
       </c>
       <c r="K468" s="2"/>
-      <c r="L468" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L468" s="5"/>
       <c r="M468" s="2" t="s">
         <v>120</v>
       </c>
@@ -30220,9 +30098,7 @@
       <c r="K469" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="L469" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L469" s="5"/>
       <c r="M469" s="2" t="s">
         <v>120</v>
       </c>
@@ -30544,9 +30420,7 @@
         <v>624</v>
       </c>
       <c r="K475" s="2"/>
-      <c r="L475" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L475" s="5"/>
       <c r="M475" s="2" t="s">
         <v>122</v>
       </c>
@@ -30600,9 +30474,7 @@
         <v>624</v>
       </c>
       <c r="K476" s="2"/>
-      <c r="L476" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L476" s="5"/>
       <c r="M476" s="2" t="s">
         <v>122</v>
       </c>
@@ -30760,9 +30632,7 @@
         <v>624</v>
       </c>
       <c r="K479" s="2"/>
-      <c r="L479" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L479" s="5"/>
       <c r="M479" s="2" t="s">
         <v>123</v>
       </c>
@@ -30978,9 +30848,7 @@
         <v>624</v>
       </c>
       <c r="K483" s="2"/>
-      <c r="L483" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L483" s="5"/>
       <c r="M483" s="2" t="s">
         <v>124</v>
       </c>
@@ -31242,9 +31110,7 @@
         <v>624</v>
       </c>
       <c r="K488" s="2"/>
-      <c r="L488" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L488" s="5"/>
       <c r="M488" s="2" t="s">
         <v>125</v>
       </c>
@@ -31512,9 +31378,7 @@
       <c r="K493" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="L493" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L493" s="5"/>
       <c r="M493" s="2" t="s">
         <v>127</v>
       </c>
@@ -32376,9 +32240,7 @@
         <v>624</v>
       </c>
       <c r="K509" s="2"/>
-      <c r="L509" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L509" s="5"/>
       <c r="M509" s="2" t="s">
         <v>83</v>
       </c>
@@ -32432,9 +32294,7 @@
         <v>624</v>
       </c>
       <c r="K510" s="2"/>
-      <c r="L510" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L510" s="5"/>
       <c r="M510" s="2" t="s">
         <v>83</v>
       </c>
@@ -32488,9 +32348,7 @@
         <v>624</v>
       </c>
       <c r="K511" s="2"/>
-      <c r="L511" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L511" s="5"/>
       <c r="M511" s="2" t="s">
         <v>83</v>
       </c>
@@ -33650,9 +33508,7 @@
         <v>624</v>
       </c>
       <c r="K533" s="2"/>
-      <c r="L533" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L533" s="5"/>
       <c r="M533" s="2" t="s">
         <v>134</v>
       </c>
@@ -33706,9 +33562,7 @@
         <v>624</v>
       </c>
       <c r="K534" s="2"/>
-      <c r="L534" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L534" s="5"/>
       <c r="M534" s="2" t="s">
         <v>134</v>
       </c>
@@ -33762,9 +33616,7 @@
         <v>624</v>
       </c>
       <c r="K535" s="2"/>
-      <c r="L535" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L535" s="5"/>
       <c r="M535" s="2" t="s">
         <v>134</v>
       </c>
@@ -34504,9 +34356,7 @@
         <v>624</v>
       </c>
       <c r="K549" s="2"/>
-      <c r="L549" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L549" s="5"/>
       <c r="M549" s="2" t="s">
         <v>137</v>
       </c>
@@ -34560,9 +34410,7 @@
         <v>624</v>
       </c>
       <c r="K550" s="2"/>
-      <c r="L550" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L550" s="5"/>
       <c r="M550" s="2" t="s">
         <v>137</v>
       </c>
@@ -34616,9 +34464,7 @@
         <v>624</v>
       </c>
       <c r="K551" s="2"/>
-      <c r="L551" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L551" s="5"/>
       <c r="M551" s="2" t="s">
         <v>137</v>
       </c>
@@ -34672,9 +34518,7 @@
         <v>624</v>
       </c>
       <c r="K552" s="2"/>
-      <c r="L552" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L552" s="5"/>
       <c r="M552" s="2" t="s">
         <v>137</v>
       </c>
@@ -34728,9 +34572,7 @@
         <v>624</v>
       </c>
       <c r="K553" s="2"/>
-      <c r="L553" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L553" s="5"/>
       <c r="M553" s="2" t="s">
         <v>137</v>
       </c>
@@ -35412,9 +35254,7 @@
         <v>624</v>
       </c>
       <c r="K566" s="2"/>
-      <c r="L566" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L566" s="5"/>
       <c r="M566" s="2" t="s">
         <v>140</v>
       </c>
@@ -37688,9 +37528,7 @@
         <v>624</v>
       </c>
       <c r="K609" s="2"/>
-      <c r="L609" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L609" s="5"/>
       <c r="M609" s="2" t="s">
         <v>145</v>
       </c>
@@ -37948,9 +37786,7 @@
         <v>624</v>
       </c>
       <c r="K614" s="2"/>
-      <c r="L614" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L614" s="5"/>
       <c r="M614" s="2" t="s">
         <v>148</v>
       </c>
@@ -38174,9 +38010,7 @@
         <v>624</v>
       </c>
       <c r="K618" s="2"/>
-      <c r="L618" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="L618" s="5"/>
       <c r="M618" s="2" t="s">
         <v>148</v>
       </c>
